--- a/public_lib/dependencies_factors_list.xlsx
+++ b/public_lib/dependencies_factors_list.xlsx
@@ -4123,12 +4123,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:E616"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B173" sqref="B173"/>
+      <selection pane="bottomLeft" activeCell="E310" sqref="E310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4154,7 +4153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -4188,7 +4187,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4205,7 +4204,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4222,7 +4221,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4239,7 +4238,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4273,7 +4272,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4290,7 +4289,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4307,7 +4306,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4324,7 +4323,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -4341,7 +4340,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4358,7 +4357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4375,7 +4374,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4392,7 +4391,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4409,7 +4408,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4426,7 +4425,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4443,7 +4442,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4460,7 +4459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4477,7 +4476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4494,7 +4493,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4511,7 +4510,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4528,7 +4527,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4545,7 +4544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -4562,7 +4561,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -4596,7 +4595,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -4613,7 +4612,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -4630,7 +4629,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -4647,7 +4646,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -4664,7 +4663,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -4681,7 +4680,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -4698,7 +4697,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -4715,7 +4714,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -4732,7 +4731,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -4749,7 +4748,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -4766,7 +4765,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -4783,7 +4782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -4800,7 +4799,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -4817,7 +4816,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -4834,7 +4833,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -4851,7 +4850,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -4868,7 +4867,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -4885,7 +4884,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -4902,7 +4901,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -4919,7 +4918,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -4936,7 +4935,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -4953,7 +4952,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -4970,7 +4969,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -4987,7 +4986,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -5004,7 +5003,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -5021,7 +5020,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -5038,7 +5037,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -5055,7 +5054,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -5072,7 +5071,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -5089,7 +5088,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -5106,7 +5105,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -5123,7 +5122,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -5140,7 +5139,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -5157,7 +5156,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -5174,7 +5173,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -5191,7 +5190,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -5208,7 +5207,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -5225,7 +5224,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -5242,7 +5241,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -5259,7 +5258,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -5276,7 +5275,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -5293,7 +5292,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -5310,7 +5309,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -5327,7 +5326,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -5344,7 +5343,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -5361,7 +5360,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -5378,7 +5377,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -5395,7 +5394,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -5429,7 +5428,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -5446,7 +5445,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -5463,7 +5462,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -5480,7 +5479,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -5497,7 +5496,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -5531,7 +5530,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -5548,7 +5547,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -5565,7 +5564,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -5582,7 +5581,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -5599,7 +5598,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -5616,7 +5615,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -5633,7 +5632,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -5650,7 +5649,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -5667,7 +5666,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -5684,7 +5683,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -5701,7 +5700,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -5718,7 +5717,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -5735,7 +5734,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -5752,7 +5751,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -5769,7 +5768,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -5786,7 +5785,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -5803,7 +5802,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -5820,7 +5819,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -5837,7 +5836,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -5854,7 +5853,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -5871,7 +5870,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -5888,7 +5887,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -5905,7 +5904,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -5922,7 +5921,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -5939,7 +5938,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -5956,7 +5955,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -5973,7 +5972,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -5990,7 +5989,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -6007,7 +6006,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -6024,7 +6023,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -6041,7 +6040,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -6058,7 +6057,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -6075,7 +6074,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -6092,7 +6091,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -6109,7 +6108,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -6126,7 +6125,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -6143,7 +6142,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -6160,7 +6159,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -6177,7 +6176,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -6211,7 +6210,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -6228,7 +6227,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -6245,7 +6244,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -6262,7 +6261,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -6279,7 +6278,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -6296,7 +6295,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -6313,7 +6312,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -6330,7 +6329,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -6347,7 +6346,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -6364,7 +6363,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -6398,7 +6397,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -6415,7 +6414,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -6432,7 +6431,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -6449,7 +6448,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -6466,7 +6465,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -6483,7 +6482,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -6517,7 +6516,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -6534,7 +6533,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -6551,7 +6550,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -6585,7 +6584,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -6619,7 +6618,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -6636,7 +6635,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -6653,7 +6652,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -6670,7 +6669,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -6687,7 +6686,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -6704,7 +6703,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -6738,7 +6737,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -6755,7 +6754,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -6806,7 +6805,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -6823,7 +6822,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -6840,7 +6839,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -6874,7 +6873,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -6891,7 +6890,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -6908,7 +6907,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -6942,7 +6941,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -6976,7 +6975,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -6993,7 +6992,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -7010,7 +7009,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -7027,7 +7026,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -7044,7 +7043,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -7078,7 +7077,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -7095,7 +7094,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -7112,7 +7111,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -7129,7 +7128,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -7146,7 +7145,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -7163,7 +7162,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -7180,7 +7179,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -7214,7 +7213,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -7231,7 +7230,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -7248,7 +7247,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -7265,7 +7264,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -7282,7 +7281,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -7299,7 +7298,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -7316,7 +7315,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -7333,7 +7332,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -7350,7 +7349,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -7435,7 +7434,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -7452,7 +7451,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -7469,7 +7468,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -7486,7 +7485,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -7503,7 +7502,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -7520,7 +7519,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -7537,7 +7536,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -7571,7 +7570,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -7588,7 +7587,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -7605,7 +7604,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -7622,7 +7621,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -7639,7 +7638,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -7656,7 +7655,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -7673,7 +7672,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -7690,7 +7689,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -7707,7 +7706,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -7724,7 +7723,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -7741,7 +7740,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -7758,7 +7757,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -7775,7 +7774,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -7792,7 +7791,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -7809,7 +7808,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -7826,7 +7825,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -7843,7 +7842,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -7860,7 +7859,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -7877,7 +7876,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -7894,7 +7893,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -7911,7 +7910,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -7928,7 +7927,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -7962,7 +7961,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -7979,7 +7978,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -7996,7 +7995,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -8013,7 +8012,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -8030,7 +8029,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -8047,7 +8046,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -8064,7 +8063,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -8081,7 +8080,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -8098,7 +8097,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -8115,7 +8114,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -8132,7 +8131,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -8149,7 +8148,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -8166,7 +8165,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -8183,7 +8182,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -8200,7 +8199,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -8217,7 +8216,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -8234,7 +8233,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -8251,7 +8250,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -8268,7 +8267,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -8285,7 +8284,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -8302,7 +8301,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -8319,7 +8318,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -8336,7 +8335,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -8353,7 +8352,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -8370,7 +8369,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -8387,7 +8386,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -8404,7 +8403,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -8421,7 +8420,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -8438,7 +8437,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -8455,7 +8454,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -8472,7 +8471,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -8489,7 +8488,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -8506,7 +8505,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -8523,7 +8522,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -8540,7 +8539,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -8557,7 +8556,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -8574,7 +8573,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -8589,7 +8588,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -8604,7 +8603,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -8619,7 +8618,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -8634,7 +8633,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -8649,7 +8648,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -8664,7 +8663,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -8681,7 +8680,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -8698,7 +8697,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -8715,7 +8714,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -8732,7 +8731,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -8749,7 +8748,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -8766,7 +8765,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -8783,7 +8782,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -8800,7 +8799,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -8817,7 +8816,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -8834,7 +8833,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -8851,7 +8850,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -8868,7 +8867,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="280" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -8885,7 +8884,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="281" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -8902,7 +8901,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="282" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -8919,7 +8918,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -8936,7 +8935,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -8953,7 +8952,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="285" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -8987,7 +8986,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="287" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -9004,7 +9003,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="288" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -9021,7 +9020,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="289" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -9038,7 +9037,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="290" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -9055,7 +9054,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="291" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -9072,7 +9071,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="292" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -9089,7 +9088,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="293" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -9106,7 +9105,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="294" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -9123,7 +9122,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="295" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -9157,7 +9156,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -9225,7 +9224,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="301" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -9259,7 +9258,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="303" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -9276,7 +9275,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="304" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -9293,7 +9292,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="305" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -9310,7 +9309,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="306" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -9344,7 +9343,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="308" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -9361,7 +9360,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="309" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -9446,7 +9445,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="314" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -9463,7 +9462,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="315" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -9480,7 +9479,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="316" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -9565,7 +9564,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="321" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -9582,7 +9581,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="322" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -9599,7 +9598,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="323" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -9616,7 +9615,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="324" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -9633,7 +9632,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="325" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -9650,7 +9649,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="326" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -9667,7 +9666,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="327" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -9684,7 +9683,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="328" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -9718,7 +9717,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="330" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -9735,7 +9734,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="331" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -9752,7 +9751,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="332" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -9769,7 +9768,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="333" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -9786,7 +9785,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="334" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -9803,7 +9802,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="335" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -9820,7 +9819,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="336" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -9837,7 +9836,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="337" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -9854,7 +9853,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="338" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -9871,7 +9870,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="339" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -9888,7 +9887,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="340" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -9905,7 +9904,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="341" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -9922,7 +9921,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="342" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -9939,7 +9938,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="343" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -9956,7 +9955,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="344" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -9973,7 +9972,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="345" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -9990,7 +9989,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="346" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -10007,7 +10006,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="347" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -10024,7 +10023,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="348" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -10041,7 +10040,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="349" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -10058,7 +10057,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="350" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -10075,7 +10074,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="351" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -10092,7 +10091,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="352" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -10109,7 +10108,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="353" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -10126,7 +10125,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="354" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -10143,7 +10142,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="355" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -10160,7 +10159,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="356" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -10177,7 +10176,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="357" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -10194,7 +10193,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="358" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -10211,7 +10210,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="359" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -10228,7 +10227,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="360" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -10245,7 +10244,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="361" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -10262,7 +10261,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="362" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -10279,7 +10278,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="363" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -10296,7 +10295,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="364" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -10313,7 +10312,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="365" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -10330,7 +10329,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="366" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -10347,7 +10346,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="367" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -10364,7 +10363,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="368" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -10381,7 +10380,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="369" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -10398,7 +10397,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="370" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -10415,7 +10414,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="371" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -10432,7 +10431,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="372" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -10449,7 +10448,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="373" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -10483,7 +10482,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="375" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -10500,7 +10499,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="376" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -10517,7 +10516,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="377" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -10534,7 +10533,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="378" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -10551,7 +10550,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="379" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -10568,7 +10567,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="380" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -10585,7 +10584,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="381" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -10602,7 +10601,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="382" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -10619,7 +10618,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="383" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -10636,7 +10635,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="384" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -10653,7 +10652,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="385" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -10670,7 +10669,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="386" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -10687,7 +10686,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="387" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -10704,7 +10703,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="388" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -10721,7 +10720,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="389" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -10738,7 +10737,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="390" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -10755,7 +10754,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="391" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -10772,7 +10771,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="392" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -10789,7 +10788,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="393" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -10823,7 +10822,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="395" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -10840,7 +10839,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="396" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -10857,7 +10856,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="397" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -10891,7 +10890,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="399" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -10908,7 +10907,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="400" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -10925,7 +10924,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="401" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -10942,7 +10941,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="402" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -10959,7 +10958,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="403" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -10976,7 +10975,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="404" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -10993,7 +10992,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="405" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -11010,7 +11009,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="406" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -11027,7 +11026,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="407" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -11044,7 +11043,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="408" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -11061,7 +11060,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="409" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -11078,7 +11077,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="410" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -11095,7 +11094,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="411" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -11112,7 +11111,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="412" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -11129,7 +11128,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="413" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -11146,7 +11145,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="414" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -11163,7 +11162,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="415" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -11180,7 +11179,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="416" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -11197,7 +11196,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="417" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -11214,7 +11213,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="418" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -11231,7 +11230,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="419" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -11248,7 +11247,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="420" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -11265,7 +11264,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="421" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -11282,7 +11281,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="422" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -11299,7 +11298,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="423" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -11316,7 +11315,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="424" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -11333,7 +11332,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="425" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -11350,7 +11349,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="426" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -11367,7 +11366,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="427" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -11384,7 +11383,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="428" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -11401,7 +11400,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="429" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -11418,7 +11417,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="430" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -11435,7 +11434,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="431" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -11452,7 +11451,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="432" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -11469,7 +11468,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="433" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -11486,7 +11485,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="434" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -11503,7 +11502,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="435" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -11520,7 +11519,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="436" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -11537,7 +11536,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="437" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -11554,7 +11553,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="438" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -11571,7 +11570,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="439" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -11588,7 +11587,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="440" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -11605,7 +11604,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="441" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -11639,7 +11638,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="443" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -11656,7 +11655,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="444" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -11673,7 +11672,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="445" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -11690,7 +11689,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="446" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -11707,7 +11706,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="447" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -11724,7 +11723,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="448" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -11741,7 +11740,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="449" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -11775,7 +11774,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="451" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -11792,7 +11791,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="452" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -11809,7 +11808,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="453" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -11826,7 +11825,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="454" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -11843,7 +11842,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="455" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -11860,7 +11859,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="456" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -11877,7 +11876,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="457" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -11894,7 +11893,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="458" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -11911,7 +11910,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="459" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -11928,7 +11927,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="460" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -11945,7 +11944,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="461" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -11962,7 +11961,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="462" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -11979,7 +11978,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="463" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -11996,7 +11995,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="464" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -12013,7 +12012,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="465" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -12030,7 +12029,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="466" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -12047,7 +12046,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="467" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -12064,7 +12063,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="468" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -12132,7 +12131,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="472" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -12149,7 +12148,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="473" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -12166,7 +12165,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="474" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -12183,7 +12182,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="475" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -12200,7 +12199,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="476" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -12217,7 +12216,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="477" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -12234,7 +12233,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="478" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -12251,7 +12250,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="479" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -12268,7 +12267,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="480" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -12285,7 +12284,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="481" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -12302,7 +12301,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="482" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -12319,7 +12318,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="483" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -12336,7 +12335,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="484" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -12353,7 +12352,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="485" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -12370,7 +12369,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="486" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -12387,7 +12386,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="487" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -12404,7 +12403,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="488" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -12421,7 +12420,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="489" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -12438,7 +12437,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="490" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -12455,7 +12454,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="491" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -12472,7 +12471,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="492" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -12489,7 +12488,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="493" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -12506,7 +12505,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="494" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -12523,7 +12522,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="495" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -12540,7 +12539,7 @@
         <v>909</v>
       </c>
     </row>
-    <row r="496" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -12557,7 +12556,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="497" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -12574,7 +12573,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="498" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -12591,7 +12590,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="499" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -12608,7 +12607,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="500" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -12676,7 +12675,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="504" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -12693,7 +12692,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="505" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -12710,7 +12709,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="506" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -12727,7 +12726,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="507" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -12744,7 +12743,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="508" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -12761,7 +12760,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="509" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -12778,7 +12777,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="510" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -12795,7 +12794,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="511" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -12812,7 +12811,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="512" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -12829,7 +12828,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="513" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -12846,7 +12845,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="514" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -12863,7 +12862,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="515" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -12880,7 +12879,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="516" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -12897,7 +12896,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="517" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -12931,7 +12930,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="519" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -12982,7 +12981,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="522" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -12999,7 +12998,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="523" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -13016,7 +13015,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="524" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -13033,7 +13032,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="525" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -13050,7 +13049,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="526" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -13067,7 +13066,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="527" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -13084,7 +13083,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="528" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -13101,7 +13100,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="529" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A529" s="1">
         <v>527</v>
       </c>
@@ -13118,7 +13117,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="530" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -13135,7 +13134,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="531" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -13152,7 +13151,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="532" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A532" s="1">
         <v>530</v>
       </c>
@@ -13186,7 +13185,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="534" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A534" s="1">
         <v>532</v>
       </c>
@@ -13203,7 +13202,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="535" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A535" s="1">
         <v>533</v>
       </c>
@@ -13220,7 +13219,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="536" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A536" s="1">
         <v>534</v>
       </c>
@@ -13237,7 +13236,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="537" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A537" s="1">
         <v>535</v>
       </c>
@@ -13254,7 +13253,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="538" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A538" s="1">
         <v>536</v>
       </c>
@@ -13271,7 +13270,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="539" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A539" s="1">
         <v>537</v>
       </c>
@@ -13288,7 +13287,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="540" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A540" s="1">
         <v>538</v>
       </c>
@@ -13305,7 +13304,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="541" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A541" s="1">
         <v>539</v>
       </c>
@@ -13322,7 +13321,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="542" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -13339,7 +13338,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="543" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A543" s="1">
         <v>541</v>
       </c>
@@ -13356,7 +13355,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="544" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -13373,7 +13372,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="545" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A545" s="1">
         <v>543</v>
       </c>
@@ -13390,7 +13389,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="546" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A546" s="1">
         <v>544</v>
       </c>
@@ -13407,7 +13406,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="547" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A547" s="1">
         <v>545</v>
       </c>
@@ -13424,7 +13423,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="548" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A548" s="1">
         <v>546</v>
       </c>
@@ -13441,7 +13440,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="549" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -13458,7 +13457,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="550" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -13475,7 +13474,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="551" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -13492,7 +13491,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="552" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -13509,7 +13508,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="553" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A553" s="1">
         <v>551</v>
       </c>
@@ -13526,7 +13525,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="554" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A554" s="1">
         <v>552</v>
       </c>
@@ -13543,7 +13542,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="555" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -13577,7 +13576,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="557" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -13611,7 +13610,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="559" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A559" s="1">
         <v>557</v>
       </c>
@@ -13645,7 +13644,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="561" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A561" s="1">
         <v>559</v>
       </c>
@@ -13662,7 +13661,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="562" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A562" s="1">
         <v>560</v>
       </c>
@@ -13679,7 +13678,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="563" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A563" s="1">
         <v>561</v>
       </c>
@@ -13696,7 +13695,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="564" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A564" s="1">
         <v>562</v>
       </c>
@@ -13713,7 +13712,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="565" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -13730,7 +13729,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="566" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -13747,7 +13746,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="567" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A567" s="1">
         <v>565</v>
       </c>
@@ -13781,7 +13780,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="569" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A569" s="1">
         <v>567</v>
       </c>
@@ -13798,7 +13797,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="570" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A570" s="1">
         <v>568</v>
       </c>
@@ -13815,7 +13814,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="571" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A571" s="1">
         <v>569</v>
       </c>
@@ -13832,7 +13831,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="572" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A572" s="1">
         <v>570</v>
       </c>
@@ -13849,7 +13848,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="573" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A573" s="1">
         <v>571</v>
       </c>
@@ -13866,7 +13865,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="574" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A574" s="1">
         <v>572</v>
       </c>
@@ -13883,7 +13882,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="575" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A575" s="1">
         <v>573</v>
       </c>
@@ -13917,7 +13916,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="577" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A577" s="1">
         <v>575</v>
       </c>
@@ -13934,7 +13933,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="578" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A578" s="1">
         <v>576</v>
       </c>
@@ -13951,7 +13950,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="579" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A579" s="1">
         <v>577</v>
       </c>
@@ -13968,7 +13967,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="580" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A580" s="1">
         <v>578</v>
       </c>
@@ -13985,7 +13984,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="581" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A581" s="1">
         <v>579</v>
       </c>
@@ -14002,7 +14001,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="582" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A582" s="1">
         <v>580</v>
       </c>
@@ -14019,7 +14018,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="583" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A583" s="1">
         <v>581</v>
       </c>
@@ -14036,7 +14035,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="584" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A584" s="1">
         <v>582</v>
       </c>
@@ -14053,7 +14052,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="585" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A585" s="1">
         <v>583</v>
       </c>
@@ -14070,7 +14069,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="586" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A586" s="1">
         <v>584</v>
       </c>
@@ -14087,7 +14086,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="587" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A587" s="1">
         <v>585</v>
       </c>
@@ -14104,7 +14103,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="588" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A588" s="1">
         <v>586</v>
       </c>
@@ -14121,7 +14120,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="589" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A589" s="1">
         <v>587</v>
       </c>
@@ -14138,7 +14137,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="590" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A590" s="1">
         <v>588</v>
       </c>
@@ -14155,7 +14154,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="591" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A591" s="1">
         <v>589</v>
       </c>
@@ -14172,7 +14171,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="592" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A592" s="1">
         <v>590</v>
       </c>
@@ -14189,7 +14188,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="593" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A593" s="1">
         <v>591</v>
       </c>
@@ -14206,7 +14205,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="594" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A594" s="1">
         <v>592</v>
       </c>
@@ -14223,7 +14222,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="595" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A595" s="1">
         <v>593</v>
       </c>
@@ -14240,7 +14239,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="596" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A596" s="1">
         <v>594</v>
       </c>
@@ -14257,7 +14256,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="597" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A597" s="1">
         <v>595</v>
       </c>
@@ -14274,7 +14273,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="598" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A598" s="1">
         <v>596</v>
       </c>
@@ -14291,7 +14290,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="599" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A599" s="1">
         <v>597</v>
       </c>
@@ -14308,7 +14307,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="600" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A600" s="1">
         <v>598</v>
       </c>
@@ -14325,7 +14324,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="601" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A601" s="1">
         <v>599</v>
       </c>
@@ -14342,7 +14341,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="602" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A602" s="1">
         <v>600</v>
       </c>
@@ -14359,7 +14358,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="603" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A603" s="1">
         <v>601</v>
       </c>
@@ -14376,7 +14375,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="604" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A604" s="1">
         <v>602</v>
       </c>
@@ -14393,7 +14392,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="605" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A605" s="1">
         <v>603</v>
       </c>
@@ -14410,7 +14409,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="606" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A606" s="1">
         <v>604</v>
       </c>
@@ -14427,7 +14426,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="607" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A607" s="1">
         <v>605</v>
       </c>
@@ -14444,7 +14443,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="608" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A608" s="1">
         <v>606</v>
       </c>
@@ -14461,7 +14460,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="609" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A609" s="1">
         <v>607</v>
       </c>
@@ -14478,7 +14477,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="610" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A610" s="1">
         <v>608</v>
       </c>
@@ -14495,7 +14494,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="611" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A611" s="1">
         <v>609</v>
       </c>
@@ -14512,7 +14511,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="612" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A612" s="1">
         <v>610</v>
       </c>
@@ -14529,7 +14528,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="613" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A613" s="1">
         <v>611</v>
       </c>
@@ -14546,7 +14545,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="614" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A614" s="1">
         <v>612</v>
       </c>
@@ -14563,7 +14562,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="615" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A615" s="1">
         <v>613</v>
       </c>
@@ -14580,7 +14579,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="616" spans="1:5" ht="16.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:5" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A616" s="1">
         <v>614</v>
       </c>
@@ -14598,72 +14597,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E616">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="处置固定资产、无形资产和其他长期资产收回的现金净额(元)"/>
-        <filter val="处置交易性金融资产净增加额(元)"/>
-        <filter val="递延所得税资产(元)"/>
-        <filter val="短期资产流动性比例（人民币）"/>
-        <filter val="短期资产流动性比例（外币）"/>
-        <filter val="非流动资产比率"/>
-        <filter val="非流动资产处置净损失(元)"/>
-        <filter val="非流动资产合计(元)"/>
-        <filter val="非生息资产"/>
-        <filter val="风险加权资产合计（2013）"/>
-        <filter val="购建固定资产、无形资产和其他长期资产支付的现金(元)"/>
-        <filter val="股东权益与固定资产比率"/>
-        <filter val="固定资产(元)"/>
-        <filter val="固定资产比率"/>
-        <filter val="固定资产清理(元)"/>
-        <filter val="固定资产周转率"/>
-        <filter val="加权风险资产净额（旧）"/>
-        <filter val="交易性金融资产(元)"/>
-        <filter val="金融资产"/>
-        <filter val="经营性资产"/>
-        <filter val="经营资产回报率TTM"/>
-        <filter val="经营资产周转率TTM"/>
-        <filter val="净资本/净资产"/>
-        <filter val="净资产"/>
-        <filter val="净资产/负债"/>
-        <filter val="净资产收益率(扣除非经常损益)(%)"/>
-        <filter val="净资产收益率ROE(%)"/>
-        <filter val="净资产增长率"/>
-        <filter val="可供出售金融资产(元)"/>
-        <filter val="流动资产合计(元)"/>
-        <filter val="流动资产周转率TTM"/>
-        <filter val="买入返售金融资产(元)"/>
-        <filter val="卖出回购金融资产款(元)"/>
-        <filter val="每股净资产"/>
-        <filter val="其他非流动资产(元)"/>
-        <filter val="其他流动资产(元)"/>
-        <filter val="生产性生物资产(元)"/>
-        <filter val="生息资产"/>
-        <filter val="生息资产收益率"/>
-        <filter val="投资资产"/>
-        <filter val="无形资产(元)"/>
-        <filter val="无形资产比率"/>
-        <filter val="现金流资产比和资产回报率之差"/>
-        <filter val="一年内到期的非流动资产(元)"/>
-        <filter val="油气资产(元)"/>
-        <filter val="债务总资产比"/>
-        <filter val="长期负债与资产总计之比"/>
-        <filter val="长期借款与资产总计之比"/>
-        <filter val="长期资产回报率TTM"/>
-        <filter val="证券资产菅理业务风险准备"/>
-        <filter val="资产负债率"/>
-        <filter val="资产回报率TTM"/>
-        <filter val="资产减值损失(元)"/>
-        <filter val="资产减值损失TTM"/>
-        <filter val="资产总计(元)"/>
-        <filter val="总资产报酬率"/>
-        <filter val="总资产净利率ROA(%)"/>
-        <filter val="总资产现金回收率"/>
-        <filter val="总资产增长率"/>
-        <filter val="总资产周转率"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:E616"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
